--- a/biology/Zoologie/Chitala_chitala/Chitala_chitala.xlsx
+++ b/biology/Zoologie/Chitala_chitala/Chitala_chitala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chitala chitala (Hamilton, 1822) ou poisson-couteau est une espèce de poisson de la famille des Notopteridae. Il est originaire des régions de l'Inde et d'Asie du sud-est : la Thaïlande et le fleuve Mékong ainsi que l'Indonésie. C'est un poisson considéré comme un mets de choix[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chitala chitala (Hamilton, 1822) ou poisson-couteau est une espèce de poisson de la famille des Notopteridae. Il est originaire des régions de l'Inde et d'Asie du sud-est : la Thaïlande et le fleuve Mékong ainsi que l'Indonésie. C'est un poisson considéré comme un mets de choix.
 	Commerce du Chitala en Thaïlande
 Synonyme : Notopterus chitala (Hamilton, 1822) - non valide
 </t>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson d'eau douce mesure jusqu'à 87 cm de long[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson d'eau douce mesure jusqu'à 87 cm de long.
 Il a un dos bossu avec une minuscule nageoire dorsale ressemblant à une plume. Sa longue nageoire anale lui permet de se déplacer aussi bien en avant qu'en arrière.
 Le poisson-couteau chitala chitala de la région thaïlandaise présente sur ses flancs des taches noires en forme d'ocelles ; le chitala chitala d'Indonésie est uniformément gris ou brun.
-Il aime se cacher parmi les plantes et les racines noueuses et il mange uniquement des proies vivantes[3].
+Il aime se cacher parmi les plantes et les racines noueuses et il mange uniquement des proies vivantes.
 </t>
         </is>
       </c>
